--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/MONTANA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/MONTANA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -573,13 +573,13 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.09523809523809523</v>
+        <v>0.09523809523809525</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -630,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>0.09523809523809523</v>
+        <v>0.09523809523809525</v>
       </c>
     </row>
     <row r="20">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C22">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -737,7 +737,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C31">
@@ -861,7 +861,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C35">
@@ -970,7 +970,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C43">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C51">
@@ -1097,7 +1097,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C52">
@@ -1294,41 +1294,6 @@
       </c>
       <c r="D65">
         <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/MONTANA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/MONTANA_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Pánuco De Coronado</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Vicente Guerero</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>León</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -903,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Hostotipaquillo</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Huejuquilla El Alto</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1095,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -1108,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1139,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -1152,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1165,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1196,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1227,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1258,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -1271,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
